--- a/Backend/Model Metrics/classification_report_rfc_CAP_rrt.xlsx
+++ b/Backend/Model Metrics/classification_report_rfc_CAP_rrt.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.75</v>
+        <v>0.9925053533190579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.8879310344827587</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7777777777777779</v>
+        <v>0.9373104145601618</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.1397058823529412</v>
       </c>
       <c r="C3" t="n">
         <v>0.7307692307692307</v>
       </c>
       <c r="D3" t="n">
-        <v>0.76</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="E3" t="n">
         <v>26</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8841121495327103</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8841121495327103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8841121495327103</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8841121495327103</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7708333333333333</v>
+        <v>0.5661056178359996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.8093501326259946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.768888888888889</v>
+        <v>0.5859391578973648</v>
       </c>
       <c r="E5" t="n">
-        <v>52</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7708333333333333</v>
+        <v>0.9717831231834327</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8841121495327103</v>
       </c>
       <c r="D6" t="n">
-        <v>0.768888888888889</v>
+        <v>0.920234428255054</v>
       </c>
       <c r="E6" t="n">
-        <v>52</v>
+        <v>1070</v>
       </c>
     </row>
   </sheetData>
